--- a/Lab1Sql/Reports/All_info.xlsx
+++ b/Lab1Sql/Reports/All_info.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sellers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sellers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -411,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,22 +427,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>Mariia Petrova Sergeevna</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>15.0$</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>22.0$</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -454,22 +444,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Andrey Sidorov Olegovich</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.0$</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13.0$</t>
+          <t>2.3%</t>
         </is>
       </c>
     </row>
@@ -481,427 +461,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Nikita Ivanov Ivanovich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.0$</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13.0$</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Anastasiia Zhykova Andreevna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.56$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>55.0$</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cabage</t>
+          <t>Aleksey Bobrov Romanovich</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.0$</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.0$</t>
+          <t>1.3%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Denis Volnov Alekseivich</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.0$</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.0$</t>
+          <t>1.32%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chocolate</t>
+          <t>Oleg Shishkin Sergeeivich</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.0$</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15.0$</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Milk</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>liter</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.0$</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13.0$</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Juice</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>package</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.0$</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13.5$</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>liter</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.0$</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.0$</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Salt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>package</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.5$</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.5$</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sugar</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.5$</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.5$</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Spaghetti</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>package</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.5$</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.5$</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>13.0$</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>17.0$</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pear</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.0$</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14.0$</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Onoin</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.35$</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.3$</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rasberry</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>25.75$</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>17.35$</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Strawberry</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>34.0$</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>25.0$</t>
+          <t>1.42%</t>
         </is>
       </c>
     </row>
@@ -916,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,12 +565,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mariia Petrova Sergeevna</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>15.0$</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>22.0$</t>
         </is>
       </c>
     </row>
@@ -949,12 +592,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andrey Sidorov Olegovich</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.0$</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13.0$</t>
         </is>
       </c>
     </row>
@@ -966,80 +619,427 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikita Ivanov Ivanovich</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.0$</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.0$</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anastasiia Zhykova Andreevna</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.56$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.0$</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aleksey Bobrov Romanovich</t>
+          <t>Cabage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.0$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.0$</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Denis Volnov Alekseivich</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.0$</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.0$</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oleg Shishkin Sergeeivich</t>
+          <t>Chocolate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.0$</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15.0$</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>liter</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.0$</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13.0$</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Juice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.0$</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.5$</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>liter</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.0$</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.0$</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Salt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.5$</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5$</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.5$</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.5$</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Spaghetti</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.5$</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.5$</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.0$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17.0$</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pear</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.0$</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14.0$</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Onion</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.35$</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.45$</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rasberry</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.15$</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17.35$</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strawberry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.0$</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.0$</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1147,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.12.2020 17:56:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
